--- a/josh-qual.xlsx
+++ b/josh-qual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuarosenberg/Google Drive/1_Research/dissertation/rosenberg-diss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0427DFBD-0D62-1A4B-BE2F-189FAF73E48A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C87545BE-0E84-B44A-899E-25F0576BEC1C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="423">
   <si>
     <t>program_ID</t>
   </si>
@@ -1767,6 +1767,141 @@
   </si>
   <si>
     <t>Josh notes</t>
+  </si>
+  <si>
+    <t>could be of interest for multiple aspects of work with data in math contexts</t>
+  </si>
+  <si>
+    <t>another potentially interesting example</t>
+  </si>
+  <si>
+    <t>continuation of previous example - of potential interest</t>
+  </si>
+  <si>
+    <t>unclear how this connects to the last example</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>related to example of interest from earlier</t>
+  </si>
+  <si>
+    <t>seems like a counter-example to potentially helpful earlier example</t>
+  </si>
+  <si>
+    <t>this sure seems powerful based on codes, but not clear to me that it is</t>
+  </si>
+  <si>
+    <t>students seem to like their teachers</t>
+  </si>
+  <si>
+    <t>I like the open-ended nature of this - seems productive</t>
+  </si>
+  <si>
+    <t>embodying mathematics</t>
+  </si>
+  <si>
+    <t>same, open-ended activity every day; wonder why so many aspects of work with data were coded</t>
+  </si>
+  <si>
+    <t>could relate to modeling</t>
+  </si>
+  <si>
+    <t>also not sure how this relates to their learning</t>
+  </si>
+  <si>
+    <t>seems like this could be of interest in context of design/engineering`</t>
+  </si>
+  <si>
+    <t>possibly of interest</t>
+  </si>
+  <si>
+    <t>seems potentially of interest</t>
+  </si>
+  <si>
+    <t>could be relevant</t>
+  </si>
+  <si>
+    <t>work with data</t>
+  </si>
+  <si>
+    <t>very different sense of generating data, but could be useful</t>
+  </si>
+  <si>
+    <t>possible example of discrepancy with generating data</t>
+  </si>
+  <si>
+    <t>another example of math problems, can we call this data modeling?</t>
+  </si>
+  <si>
+    <t>interested about the race/ethnicity component</t>
+  </si>
+  <si>
+    <t>recording information</t>
+  </si>
+  <si>
+    <t>this seems like it could be an example of there not being a  code for work with data, but this being present</t>
+  </si>
+  <si>
+    <t>classifying seems present here - curious about how work with data relates</t>
+  </si>
+  <si>
+    <t>clear example of an aspect of instructional support for work with data not being present?</t>
+  </si>
+  <si>
+    <t>seems to be discrepant - does not seem to be emphasis on work with data</t>
+  </si>
+  <si>
+    <t>could be a good example of collecting data</t>
+  </si>
+  <si>
+    <t>This seems very discrepany - they are making observations but this is nto coded as such</t>
+  </si>
+  <si>
+    <t>is data being generated? Seems like a key moment</t>
+  </si>
+  <si>
+    <t>possible example of communicating/sharing</t>
+  </si>
+  <si>
+    <t>this seems discrepant</t>
+  </si>
+  <si>
+    <t>could be example of graphing</t>
+  </si>
+  <si>
+    <t>does building relate to modeling?</t>
+  </si>
+  <si>
+    <t>wonder if field trip speaker is in fact important - visits to externall/community sites do not appear to be, to me</t>
+  </si>
+  <si>
+    <t>again, is modeling the building here?</t>
+  </si>
+  <si>
+    <t>testing and collecting data?</t>
+  </si>
+  <si>
+    <t>not clear how this relates to work with data in any way</t>
+  </si>
+  <si>
+    <t>students are becoming disinterested, very similar to school - seems discrepant with codes for work with data</t>
+  </si>
+  <si>
+    <t>calculating how deep to dig?</t>
+  </si>
+  <si>
+    <t>measurement practices seem common</t>
+  </si>
+  <si>
+    <t>collecting data but not generating? Good example, possibly</t>
+  </si>
+  <si>
+    <t>good example of not necessarily modeing data</t>
+  </si>
+  <si>
+    <t>good example of work with data that has potential and could be so much more</t>
   </si>
 </sst>
 </file>
@@ -2611,10 +2746,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O254"/>
+  <dimension ref="A1:Q251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="M249" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B254" sqref="A254:XFD254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2626,7 +2765,7 @@
     <col min="12" max="14" width="48.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2672,8 +2811,14 @@
       <c r="O1" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+      <c r="P1" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="96" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2717,7 +2862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="112" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2761,7 +2906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2806,7 +2951,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="112" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2850,7 +2995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="128" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2893,8 +3038,11 @@
       <c r="N6" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+      <c r="O6" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="96" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2938,7 +3086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2986,7 +3134,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3033,7 +3181,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="112" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3076,8 +3224,14 @@
       <c r="N10" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+      <c r="O10" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="96" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3120,8 +3274,11 @@
       <c r="N11" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+      <c r="O11" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="96" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3164,8 +3321,11 @@
       <c r="N12" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+      <c r="O12" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="112" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3213,7 +3373,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="96" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3257,7 +3417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="96" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3300,8 +3460,11 @@
       <c r="N15" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+      <c r="O15" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="96" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3350,7 +3513,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3399,7 +3562,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3447,7 +3610,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3493,7 +3656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3537,7 +3700,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3587,7 +3750,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3631,7 +3794,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3677,7 +3840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3725,8 +3888,11 @@
 - Did not see any explicit examples of anything STEM-related</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="O24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3770,7 +3936,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -3814,7 +3980,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3858,7 +4024,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -3902,7 +4068,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3945,8 +4111,11 @@
       <c r="N29" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="O29" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3989,8 +4158,11 @@
       <c r="N30" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="O30" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -4033,8 +4205,14 @@
       <c r="N31" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="O31" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -4078,7 +4256,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -4121,8 +4299,11 @@
       <c r="N33" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="O33" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -4166,7 +4347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -4210,7 +4391,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -4254,7 +4435,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -4298,7 +4479,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -4341,8 +4522,11 @@
       <c r="N38" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2</v>
       </c>
@@ -4391,7 +4575,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -4435,7 +4619,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2</v>
       </c>
@@ -4479,7 +4663,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
@@ -4523,7 +4707,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -4567,7 +4751,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -4610,8 +4794,11 @@
       <c r="N44" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+      <c r="O44" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -4655,7 +4842,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2</v>
       </c>
@@ -4699,7 +4886,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2</v>
       </c>
@@ -4743,7 +4930,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2</v>
       </c>
@@ -4798,7 +4985,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2</v>
       </c>
@@ -4842,7 +5029,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4</v>
       </c>
@@ -4889,8 +5076,11 @@
       <c r="N50" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+      <c r="O50" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4</v>
       </c>
@@ -4938,7 +5128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4</v>
       </c>
@@ -4985,7 +5175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4</v>
       </c>
@@ -5034,7 +5224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4</v>
       </c>
@@ -5087,7 +5277,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>4</v>
       </c>
@@ -5131,7 +5321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4</v>
       </c>
@@ -5175,7 +5365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>4</v>
       </c>
@@ -5226,7 +5416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4</v>
       </c>
@@ -5270,7 +5460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4</v>
       </c>
@@ -5314,7 +5504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4</v>
       </c>
@@ -5364,7 +5554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4</v>
       </c>
@@ -5413,7 +5603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4</v>
       </c>
@@ -5457,7 +5647,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4</v>
       </c>
@@ -5501,7 +5691,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4</v>
       </c>
@@ -5545,7 +5735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4</v>
       </c>
@@ -5589,7 +5779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4</v>
       </c>
@@ -5633,7 +5823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4</v>
       </c>
@@ -5680,8 +5870,14 @@
       <c r="N67" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+      <c r="O67" t="s">
+        <v>392</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4</v>
       </c>
@@ -5725,7 +5921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4</v>
       </c>
@@ -5769,7 +5965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4</v>
       </c>
@@ -5813,7 +6009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4</v>
       </c>
@@ -5858,8 +6054,14 @@
       <c r="N71" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="O71" t="s">
+        <v>393</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4</v>
       </c>
@@ -5906,7 +6108,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4</v>
       </c>
@@ -5959,7 +6161,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="352" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" ht="320" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>4</v>
       </c>
@@ -6002,8 +6204,11 @@
       <c r="N74" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="O74" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4</v>
       </c>
@@ -6047,7 +6252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4</v>
       </c>
@@ -6090,8 +6295,11 @@
       <c r="N76" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="O76" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4</v>
       </c>
@@ -6135,7 +6343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4</v>
       </c>
@@ -6179,7 +6387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4</v>
       </c>
@@ -6222,8 +6430,11 @@
       <c r="N79" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+      <c r="O79" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4</v>
       </c>
@@ -6267,7 +6478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4</v>
       </c>
@@ -6311,7 +6522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4</v>
       </c>
@@ -6360,7 +6571,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4</v>
       </c>
@@ -6407,7 +6618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>4</v>
       </c>
@@ -6451,7 +6662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>4</v>
       </c>
@@ -6498,7 +6709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4</v>
       </c>
@@ -6542,7 +6753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4</v>
       </c>
@@ -6589,8 +6800,11 @@
       <c r="N87" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+      <c r="O87" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4</v>
       </c>
@@ -6638,7 +6852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4</v>
       </c>
@@ -6682,7 +6896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>4</v>
       </c>
@@ -6726,7 +6940,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>4</v>
       </c>
@@ -6773,7 +6987,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>4</v>
       </c>
@@ -6821,7 +7035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4</v>
       </c>
@@ -6868,7 +7082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>4</v>
       </c>
@@ -6914,7 +7128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>4</v>
       </c>
@@ -6957,8 +7171,14 @@
       <c r="N95" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="O95" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4</v>
       </c>
@@ -7002,7 +7222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>4</v>
       </c>
@@ -7050,7 +7270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>4</v>
       </c>
@@ -7093,8 +7313,11 @@
       <c r="N98" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="O98" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>4</v>
       </c>
@@ -7140,7 +7363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>4</v>
       </c>
@@ -7183,8 +7406,14 @@
       <c r="N100" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="O100" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>4</v>
       </c>
@@ -7230,7 +7459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>4</v>
       </c>
@@ -7274,7 +7503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>4</v>
       </c>
@@ -7321,7 +7550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>4</v>
       </c>
@@ -7365,7 +7594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>5</v>
       </c>
@@ -7409,7 +7638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>5</v>
       </c>
@@ -7453,7 +7682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>5</v>
       </c>
@@ -7497,7 +7726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>5</v>
       </c>
@@ -7541,7 +7770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>5</v>
       </c>
@@ -7585,7 +7814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>5</v>
       </c>
@@ -7632,7 +7861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>5</v>
       </c>
@@ -7680,7 +7909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>5</v>
       </c>
@@ -7727,7 +7956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>5</v>
       </c>
@@ -7771,7 +8000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>5</v>
       </c>
@@ -7815,7 +8044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="304" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" ht="304" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>5</v>
       </c>
@@ -7858,8 +8087,11 @@
       <c r="N115" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" ht="176" x14ac:dyDescent="0.2">
+      <c r="P115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="176" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>5</v>
       </c>
@@ -7904,8 +8136,11 @@
 - Did not see any example sof generating or modeling, they may have been communicating, though, since they are discussing previous connections and they have made and information they have gathered in their program</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" ht="224" x14ac:dyDescent="0.2">
+      <c r="P116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="224" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>5</v>
       </c>
@@ -7948,8 +8183,14 @@
       <c r="N117" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" ht="224" x14ac:dyDescent="0.2">
+      <c r="O117" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="P117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="224" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>5</v>
       </c>
@@ -7992,8 +8233,11 @@
       <c r="N118" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="P118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>5</v>
       </c>
@@ -8037,7 +8281,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>5</v>
       </c>
@@ -8081,7 +8325,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>5</v>
       </c>
@@ -8125,7 +8369,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>5</v>
       </c>
@@ -8169,7 +8413,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>5</v>
       </c>
@@ -8213,7 +8457,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>5</v>
       </c>
@@ -8260,7 +8504,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>5</v>
       </c>
@@ -8313,7 +8557,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>5</v>
       </c>
@@ -8362,7 +8606,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>5</v>
       </c>
@@ -8409,7 +8653,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>5</v>
       </c>
@@ -8453,7 +8697,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>5</v>
       </c>
@@ -8497,7 +8741,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" ht="176" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>5</v>
       </c>
@@ -8540,8 +8784,14 @@
       <c r="N130" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="O130" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="P130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>5</v>
       </c>
@@ -8585,7 +8835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>10</v>
       </c>
@@ -8631,7 +8881,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>10</v>
       </c>
@@ -8675,7 +8925,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>10</v>
       </c>
@@ -8719,7 +8969,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>10</v>
       </c>
@@ -8763,7 +9013,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>10</v>
       </c>
@@ -8807,7 +9057,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>10</v>
       </c>
@@ -8851,7 +9101,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" ht="144" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>10</v>
       </c>
@@ -8894,8 +9144,14 @@
       <c r="N138" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="O138" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="P138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>10</v>
       </c>
@@ -8939,7 +9195,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>10</v>
       </c>
@@ -8983,7 +9239,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>10</v>
       </c>
@@ -9027,7 +9283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>10</v>
       </c>
@@ -9072,7 +9328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>10</v>
       </c>
@@ -9116,7 +9372,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>10</v>
       </c>
@@ -9160,7 +9416,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>10</v>
       </c>
@@ -9204,7 +9460,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>10</v>
       </c>
@@ -9249,7 +9505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>10</v>
       </c>
@@ -9293,7 +9549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>10</v>
       </c>
@@ -9337,7 +9593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>10</v>
       </c>
@@ -9381,7 +9637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>10</v>
       </c>
@@ -9425,7 +9681,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>10</v>
       </c>
@@ -9472,8 +9728,14 @@
 - students do survey</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+      <c r="O151" t="s">
+        <v>404</v>
+      </c>
+      <c r="P151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>10</v>
       </c>
@@ -9517,7 +9779,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>10</v>
       </c>
@@ -9560,8 +9822,11 @@
       <c r="N153" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+      <c r="O153" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>10</v>
       </c>
@@ -9605,7 +9870,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>10</v>
       </c>
@@ -9650,7 +9915,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" ht="144" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>6</v>
       </c>
@@ -9693,8 +9958,14 @@
       <c r="N156" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="O156" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="P156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>6</v>
       </c>
@@ -9738,7 +10009,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>6</v>
       </c>
@@ -9782,7 +10053,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>6</v>
       </c>
@@ -9826,7 +10097,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>6</v>
       </c>
@@ -9882,8 +10153,14 @@
 - Did not see any examples of modeling, unless the entire experiment itself is considered to be modeling what scientists do?</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="O160" t="s">
+        <v>406</v>
+      </c>
+      <c r="P160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>6</v>
       </c>
@@ -9927,7 +10204,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>6</v>
       </c>
@@ -9971,7 +10248,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>6</v>
       </c>
@@ -10014,8 +10291,14 @@
       <c r="N163" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="O163" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="P163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>6</v>
       </c>
@@ -10059,7 +10342,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>6</v>
       </c>
@@ -10103,7 +10386,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>6</v>
       </c>
@@ -10152,7 +10435,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>6</v>
       </c>
@@ -10196,7 +10479,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>6</v>
       </c>
@@ -10239,8 +10522,14 @@
       <c r="N168" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="O168" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="P168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>6</v>
       </c>
@@ -10290,7 +10579,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>6</v>
       </c>
@@ -10334,7 +10623,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>6</v>
       </c>
@@ -10379,7 +10668,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>6</v>
       </c>
@@ -10422,8 +10711,14 @@
       <c r="N172" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+      <c r="O172" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="P172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>6</v>
       </c>
@@ -10467,7 +10762,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>6</v>
       </c>
@@ -10511,7 +10806,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>6</v>
       </c>
@@ -10555,7 +10850,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>6</v>
       </c>
@@ -10604,7 +10899,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="177" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>6</v>
       </c>
@@ -10648,7 +10943,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="178" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>6</v>
       </c>
@@ -10695,7 +10990,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="179" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>6</v>
       </c>
@@ -10742,7 +11037,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>8</v>
       </c>
@@ -10789,7 +11084,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="181" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>8</v>
       </c>
@@ -10836,8 +11131,14 @@
       <c r="N181" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+      <c r="O181" t="s">
+        <v>411</v>
+      </c>
+      <c r="P181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>8</v>
       </c>
@@ -10885,7 +11186,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="183" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>8</v>
       </c>
@@ -10929,7 +11230,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="184" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>8</v>
       </c>
@@ -10979,7 +11280,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="185" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>8</v>
       </c>
@@ -11023,7 +11324,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="186" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>8</v>
       </c>
@@ -11067,7 +11368,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>8</v>
       </c>
@@ -11111,7 +11412,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>8</v>
       </c>
@@ -11155,7 +11456,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="189" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>8</v>
       </c>
@@ -11199,7 +11500,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="190" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>8</v>
       </c>
@@ -11243,7 +11544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>8</v>
       </c>
@@ -11293,8 +11594,11 @@
       <c r="N191" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="O191" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>8</v>
       </c>
@@ -11341,7 +11645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" ht="176" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>8</v>
       </c>
@@ -11384,8 +11688,14 @@
       <c r="N193" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+      <c r="O193" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>8</v>
       </c>
@@ -11429,7 +11739,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="195" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>8</v>
       </c>
@@ -11477,7 +11787,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="196" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>8</v>
       </c>
@@ -11521,7 +11831,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="197" spans="1:14" ht="144" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" ht="144" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>8</v>
       </c>
@@ -11565,7 +11875,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="198" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>8</v>
       </c>
@@ -11613,8 +11923,14 @@
       <c r="N198" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="O198" t="s">
+        <v>414</v>
+      </c>
+      <c r="P198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>8</v>
       </c>
@@ -11661,8 +11977,14 @@
       <c r="N199" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="O199" t="s">
+        <v>415</v>
+      </c>
+      <c r="P199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>8</v>
       </c>
@@ -11706,7 +12028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>8</v>
       </c>
@@ -11750,7 +12072,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="202" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>8</v>
       </c>
@@ -11794,7 +12116,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="203" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>8</v>
       </c>
@@ -11840,7 +12162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>7</v>
       </c>
@@ -11887,7 +12209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>7</v>
       </c>
@@ -11930,8 +12252,11 @@
       <c r="N205" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="O205" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>7</v>
       </c>
@@ -11975,7 +12300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>7</v>
       </c>
@@ -12019,7 +12344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>7</v>
       </c>
@@ -12063,7 +12388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>7</v>
       </c>
@@ -12111,7 +12436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" ht="192" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>7</v>
       </c>
@@ -12154,8 +12479,11 @@
       <c r="N210" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="O210" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>7</v>
       </c>
@@ -12199,7 +12527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>7</v>
       </c>
@@ -12243,7 +12571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>7</v>
       </c>
@@ -12289,7 +12617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>7</v>
       </c>
@@ -12339,7 +12667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>7</v>
       </c>
@@ -12385,7 +12713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>7</v>
       </c>
@@ -12434,7 +12762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>7</v>
       </c>
@@ -12477,8 +12805,14 @@
       <c r="N217" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="O217" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="P217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>7</v>
       </c>
@@ -12526,7 +12860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>7</v>
       </c>
@@ -12574,7 +12908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>7</v>
       </c>
@@ -12617,8 +12951,11 @@
       <c r="N220" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="O220" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>7</v>
       </c>
@@ -12662,7 +12999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>7</v>
       </c>
@@ -12709,7 +13046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>7</v>
       </c>
@@ -12757,7 +13094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>7</v>
       </c>
@@ -12803,7 +13140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>7</v>
       </c>
@@ -12847,7 +13184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>7</v>
       </c>
@@ -12899,7 +13236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>7</v>
       </c>
@@ -12947,7 +13284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>9</v>
       </c>
@@ -12996,7 +13333,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="229" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>9</v>
       </c>
@@ -13040,7 +13377,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="230" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>9</v>
       </c>
@@ -13083,8 +13420,11 @@
       <c r="N230" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+      <c r="P230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>9</v>
       </c>
@@ -13127,8 +13467,14 @@
       <c r="N231" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+      <c r="O231" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="P231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>9</v>
       </c>
@@ -13172,7 +13518,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="233" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>9</v>
       </c>
@@ -13216,7 +13562,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="234" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>9</v>
       </c>
@@ -13263,7 +13609,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="235" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>9</v>
       </c>
@@ -13307,7 +13653,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="236" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>9</v>
       </c>
@@ -13355,7 +13701,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="237" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>9</v>
       </c>
@@ -13405,7 +13751,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="238" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>9</v>
       </c>
@@ -13449,7 +13795,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="239" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>9</v>
       </c>
@@ -13493,7 +13839,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="240" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" ht="144" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>9</v>
       </c>
@@ -13536,8 +13882,14 @@
       <c r="N240" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="O240" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="P240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>9</v>
       </c>
@@ -13580,8 +13932,14 @@
       <c r="N241" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="O241" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="P241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>9</v>
       </c>
@@ -13626,7 +13984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>9</v>
       </c>
@@ -13678,7 +14036,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="244" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>9</v>
       </c>
@@ -13722,7 +14080,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="245" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>9</v>
       </c>
@@ -13766,7 +14124,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="246" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>9</v>
       </c>
@@ -13813,7 +14171,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="247" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>9</v>
       </c>
@@ -13859,7 +14217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>9</v>
       </c>
@@ -13903,7 +14261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>9</v>
       </c>
@@ -13947,7 +14305,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="250" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>9</v>
       </c>
@@ -13994,7 +14352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>9</v>
       </c>
@@ -14040,138 +14398,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>15</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C252" t="s">
-        <v>15</v>
-      </c>
-      <c r="D252" t="s">
-        <v>15</v>
-      </c>
-      <c r="E252" t="s">
-        <v>15</v>
-      </c>
-      <c r="F252" t="s">
-        <v>15</v>
-      </c>
-      <c r="G252" t="s">
-        <v>15</v>
-      </c>
-      <c r="H252" t="s">
-        <v>15</v>
-      </c>
-      <c r="I252" t="s">
-        <v>15</v>
-      </c>
-      <c r="J252" t="s">
-        <v>15</v>
-      </c>
-      <c r="K252" t="s">
-        <v>15</v>
-      </c>
-      <c r="L252" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M252" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N252" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>15</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C253" t="s">
-        <v>15</v>
-      </c>
-      <c r="D253" t="s">
-        <v>15</v>
-      </c>
-      <c r="E253" t="s">
-        <v>15</v>
-      </c>
-      <c r="F253" t="s">
-        <v>15</v>
-      </c>
-      <c r="G253" t="s">
-        <v>15</v>
-      </c>
-      <c r="H253" t="s">
-        <v>15</v>
-      </c>
-      <c r="I253" t="s">
-        <v>15</v>
-      </c>
-      <c r="J253" t="s">
-        <v>15</v>
-      </c>
-      <c r="K253" t="s">
-        <v>15</v>
-      </c>
-      <c r="L253" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M253" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N253" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>15</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C254" t="s">
-        <v>15</v>
-      </c>
-      <c r="D254" t="s">
-        <v>15</v>
-      </c>
-      <c r="E254" t="s">
-        <v>15</v>
-      </c>
-      <c r="F254" t="s">
-        <v>15</v>
-      </c>
-      <c r="G254" t="s">
-        <v>15</v>
-      </c>
-      <c r="H254" t="s">
-        <v>15</v>
-      </c>
-      <c r="I254" t="s">
-        <v>15</v>
-      </c>
-      <c r="J254" t="s">
-        <v>15</v>
-      </c>
-      <c r="K254" t="s">
-        <v>15</v>
-      </c>
-      <c r="L254" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M254" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N254" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
